--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H2">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I2">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J2">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>80.90246443971041</v>
+        <v>122.4771730986553</v>
       </c>
       <c r="R2">
-        <v>80.90246443971041</v>
+        <v>1102.294557887898</v>
       </c>
       <c r="S2">
-        <v>0.001765784870925911</v>
+        <v>0.002385982919288145</v>
       </c>
       <c r="T2">
-        <v>0.001765784870925911</v>
+        <v>0.002385982919288146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H3">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I3">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J3">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>160.5108908142764</v>
+        <v>188.1621352511342</v>
       </c>
       <c r="R3">
-        <v>160.5108908142764</v>
+        <v>1693.459217260208</v>
       </c>
       <c r="S3">
-        <v>0.003503325944167055</v>
+        <v>0.00366559440757472</v>
       </c>
       <c r="T3">
-        <v>0.003503325944167055</v>
+        <v>0.003665594407574721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H4">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I4">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J4">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>75.35328319649065</v>
+        <v>94.02330344131022</v>
       </c>
       <c r="R4">
-        <v>75.35328319649065</v>
+        <v>846.2097309717919</v>
       </c>
       <c r="S4">
-        <v>0.001644667914190861</v>
+        <v>0.001831671897303739</v>
       </c>
       <c r="T4">
-        <v>0.001644667914190861</v>
+        <v>0.001831671897303739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H5">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I5">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J5">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>84.57771877596473</v>
+        <v>98.68743359405111</v>
       </c>
       <c r="R5">
-        <v>84.57771877596473</v>
+        <v>888.1869023464601</v>
       </c>
       <c r="S5">
-        <v>0.001846001321051469</v>
+        <v>0.001922534011412239</v>
       </c>
       <c r="T5">
-        <v>0.001846001321051469</v>
+        <v>0.00192253401141224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H6">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I6">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J6">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>63.15841493609543</v>
+        <v>75.17485769775865</v>
       </c>
       <c r="R6">
-        <v>63.15841493609543</v>
+        <v>676.573719279828</v>
       </c>
       <c r="S6">
-        <v>0.001378501561580088</v>
+        <v>0.001464484539354038</v>
       </c>
       <c r="T6">
-        <v>0.001378501561580088</v>
+        <v>0.001464484539354039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.10781461671941</v>
+        <v>1.291955333333333</v>
       </c>
       <c r="H7">
-        <v>1.10781461671941</v>
+        <v>3.875866</v>
       </c>
       <c r="I7">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="J7">
-        <v>0.01274355174895736</v>
+        <v>0.01418569913945242</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>119.3649226971553</v>
+        <v>149.6547980301722</v>
       </c>
       <c r="R7">
-        <v>119.3649226971553</v>
+        <v>1346.89318227155</v>
       </c>
       <c r="S7">
-        <v>0.002605270137041973</v>
+        <v>0.002915431364519535</v>
       </c>
       <c r="T7">
-        <v>0.002605270137041973</v>
+        <v>0.002915431364519535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H8">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I8">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J8">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>3760.426206896617</v>
+        <v>4945.869481216551</v>
       </c>
       <c r="R8">
-        <v>3760.426206896617</v>
+        <v>44512.82533094897</v>
       </c>
       <c r="S8">
-        <v>0.08207541946166111</v>
+        <v>0.09635068972163248</v>
       </c>
       <c r="T8">
-        <v>0.08207541946166111</v>
+        <v>0.09635068972163249</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H9">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I9">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J9">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>7460.7042503647</v>
+        <v>7598.357626277896</v>
       </c>
       <c r="R9">
-        <v>7460.7042503647</v>
+        <v>68385.21863650107</v>
       </c>
       <c r="S9">
-        <v>0.1628380393969835</v>
+        <v>0.1480239219461616</v>
       </c>
       <c r="T9">
-        <v>0.1628380393969835</v>
+        <v>0.1480239219461616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H10">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I10">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J10">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>3502.494798770313</v>
+        <v>3796.846181606104</v>
       </c>
       <c r="R10">
-        <v>3502.494798770313</v>
+        <v>34171.61563445494</v>
       </c>
       <c r="S10">
-        <v>0.07644578405611112</v>
+        <v>0.07396651888086435</v>
       </c>
       <c r="T10">
-        <v>0.07644578405611112</v>
+        <v>0.07396651888086435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H11">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I11">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J11">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>3931.255647245253</v>
+        <v>3985.192943661771</v>
       </c>
       <c r="R11">
-        <v>3931.255647245253</v>
+        <v>35866.73649295593</v>
       </c>
       <c r="S11">
-        <v>0.08580395904775932</v>
+        <v>0.07763571001092139</v>
       </c>
       <c r="T11">
-        <v>0.08580395904775932</v>
+        <v>0.0776357100109214</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H12">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I12">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J12">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>2935.665314481662</v>
+        <v>3035.708818513086</v>
       </c>
       <c r="R12">
-        <v>2935.665314481662</v>
+        <v>27321.37936661777</v>
       </c>
       <c r="S12">
-        <v>0.06407410990893456</v>
+        <v>0.05913877015327798</v>
       </c>
       <c r="T12">
-        <v>0.06407410990893456</v>
+        <v>0.05913877015327799</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.49231418283</v>
+        <v>52.17170100000001</v>
       </c>
       <c r="H13">
-        <v>51.49231418283</v>
+        <v>156.515103</v>
       </c>
       <c r="I13">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="J13">
-        <v>0.5923328330922968</v>
+        <v>0.5728464714565484</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>5548.199138347265</v>
+        <v>6043.355505101725</v>
       </c>
       <c r="R13">
-        <v>5548.199138347265</v>
+        <v>54390.19954591552</v>
       </c>
       <c r="S13">
-        <v>0.121095521220847</v>
+        <v>0.1177308607436907</v>
       </c>
       <c r="T13">
-        <v>0.121095521220847</v>
+        <v>0.1177308607436907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H14">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I14">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J14">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>197.5787342882971</v>
+        <v>339.659049746857</v>
       </c>
       <c r="R14">
-        <v>197.5787342882971</v>
+        <v>3056.931447721713</v>
       </c>
       <c r="S14">
-        <v>0.004312372215594948</v>
+        <v>0.006616912119818846</v>
       </c>
       <c r="T14">
-        <v>0.004312372215594948</v>
+        <v>0.006616912119818847</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H15">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I15">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J15">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>391.9971890374877</v>
+        <v>521.8194577879386</v>
       </c>
       <c r="R15">
-        <v>391.9971890374877</v>
+        <v>4696.375120091448</v>
       </c>
       <c r="S15">
-        <v>0.008555767869886136</v>
+        <v>0.0101655866292026</v>
       </c>
       <c r="T15">
-        <v>0.008555767869886136</v>
+        <v>0.0101655866292026</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H16">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I16">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J16">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>184.0266105802638</v>
+        <v>260.7495347333947</v>
       </c>
       <c r="R16">
-        <v>184.0266105802638</v>
+        <v>2346.745812600552</v>
       </c>
       <c r="S16">
-        <v>0.004016582276706318</v>
+        <v>0.005079672565475314</v>
       </c>
       <c r="T16">
-        <v>0.004016582276706318</v>
+        <v>0.005079672565475314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H17">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I17">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J17">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>206.5543829903937</v>
+        <v>273.6843043357234</v>
       </c>
       <c r="R17">
-        <v>206.5543829903937</v>
+        <v>2463.15873902151</v>
       </c>
       <c r="S17">
-        <v>0.004508275576446445</v>
+        <v>0.005331655351779699</v>
       </c>
       <c r="T17">
-        <v>0.004508275576446445</v>
+        <v>0.0053316553517797</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H18">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I18">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J18">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>154.2444938995418</v>
+        <v>208.478201157602</v>
       </c>
       <c r="R18">
-        <v>154.2444938995418</v>
+        <v>1876.303810418418</v>
       </c>
       <c r="S18">
-        <v>0.003366554970082563</v>
+        <v>0.004061372535152164</v>
       </c>
       <c r="T18">
-        <v>0.003366554970082563</v>
+        <v>0.004061372535152165</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.70548754371517</v>
+        <v>3.582907</v>
       </c>
       <c r="H19">
-        <v>2.70548754371517</v>
+        <v>10.748721</v>
       </c>
       <c r="I19">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="J19">
-        <v>0.03112210292150925</v>
+        <v>0.03934040089103032</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>291.5111487425634</v>
+        <v>415.0292271037416</v>
       </c>
       <c r="R19">
-        <v>291.5111487425634</v>
+        <v>3735.263043933674</v>
       </c>
       <c r="S19">
-        <v>0.006362550012792834</v>
+        <v>0.008085201689601701</v>
       </c>
       <c r="T19">
-        <v>0.006362550012792834</v>
+        <v>0.008085201689601701</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H20">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I20">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J20">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>145.1787744601985</v>
+        <v>217.9325018684197</v>
       </c>
       <c r="R20">
-        <v>145.1787744601985</v>
+        <v>1961.392516815777</v>
       </c>
       <c r="S20">
-        <v>0.003168685716767284</v>
+        <v>0.004245552161764338</v>
       </c>
       <c r="T20">
-        <v>0.003168685716767284</v>
+        <v>0.004245552161764339</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H21">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I21">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J21">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>288.0354087766624</v>
+        <v>334.810510846399</v>
       </c>
       <c r="R21">
-        <v>288.0354087766624</v>
+        <v>3013.294597617592</v>
       </c>
       <c r="S21">
-        <v>0.006286688182259423</v>
+        <v>0.006522457531201927</v>
       </c>
       <c r="T21">
-        <v>0.006286688182259423</v>
+        <v>0.006522457531201928</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H22">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I22">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J22">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>135.2208165941742</v>
+        <v>167.3024714278231</v>
       </c>
       <c r="R22">
-        <v>135.2208165941742</v>
+        <v>1505.722242850408</v>
       </c>
       <c r="S22">
-        <v>0.002951342382829083</v>
+        <v>0.003259226426298547</v>
       </c>
       <c r="T22">
-        <v>0.002951342382829083</v>
+        <v>0.003259226426298547</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H23">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I23">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J23">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>151.7739866587658</v>
+        <v>175.6016959078655</v>
       </c>
       <c r="R23">
-        <v>151.7739866587658</v>
+        <v>1580.41526317079</v>
       </c>
       <c r="S23">
-        <v>0.003312633444459246</v>
+        <v>0.003420903964665381</v>
       </c>
       <c r="T23">
-        <v>0.003312633444459246</v>
+        <v>0.003420903964665382</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H24">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I24">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J24">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>113.3372307107416</v>
+        <v>133.7640672231913</v>
       </c>
       <c r="R24">
-        <v>113.3372307107416</v>
+        <v>1203.876605008722</v>
       </c>
       <c r="S24">
-        <v>0.002473709159389155</v>
+        <v>0.00260586337465483</v>
       </c>
       <c r="T24">
-        <v>0.002473709159389155</v>
+        <v>0.00260586337465483</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.98796377215767</v>
+        <v>2.298869666666667</v>
       </c>
       <c r="H25">
-        <v>1.98796377215767</v>
+        <v>6.896609</v>
       </c>
       <c r="I25">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="J25">
-        <v>0.02286819366995256</v>
+        <v>0.02524164157286134</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>214.1993239726748</v>
+        <v>266.2916176637861</v>
       </c>
       <c r="R25">
-        <v>214.1993239726748</v>
+        <v>2396.624558974075</v>
       </c>
       <c r="S25">
-        <v>0.004675134784248369</v>
+        <v>0.005187638114276322</v>
       </c>
       <c r="T25">
-        <v>0.004675134784248369</v>
+        <v>0.005187638114276322</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H26">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I26">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J26">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>479.9528266754302</v>
+        <v>645.776016212894</v>
       </c>
       <c r="R26">
-        <v>479.9528266754302</v>
+        <v>5811.984145916046</v>
       </c>
       <c r="S26">
-        <v>0.01047549596876822</v>
+        <v>0.01258038951575725</v>
       </c>
       <c r="T26">
-        <v>0.01047549596876822</v>
+        <v>0.01258038951575725</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H27">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I27">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J27">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>952.228789222024</v>
+        <v>992.1080886371572</v>
       </c>
       <c r="R27">
-        <v>952.228789222024</v>
+        <v>8928.972797734416</v>
       </c>
       <c r="S27">
-        <v>0.02078343597210654</v>
+        <v>0.01932729906877525</v>
       </c>
       <c r="T27">
-        <v>0.02078343597210654</v>
+        <v>0.01932729906877525</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H28">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I28">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J28">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>447.0323805325026</v>
+        <v>495.7494755255093</v>
       </c>
       <c r="R28">
-        <v>447.0323805325026</v>
+        <v>4461.745279729584</v>
       </c>
       <c r="S28">
-        <v>0.009756971185303403</v>
+        <v>0.009657716217022223</v>
       </c>
       <c r="T28">
-        <v>0.009756971185303403</v>
+        <v>0.009657716217022223</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H29">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I29">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J29">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>501.756225615779</v>
+        <v>520.3416775900466</v>
       </c>
       <c r="R29">
-        <v>501.756225615779</v>
+        <v>4683.075098310421</v>
       </c>
       <c r="S29">
-        <v>0.01095137902437428</v>
+        <v>0.01013679793150958</v>
       </c>
       <c r="T29">
-        <v>0.01095137902437428</v>
+        <v>0.01013679793150958</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H30">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I30">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J30">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>374.6864818871915</v>
+        <v>396.3687183106839</v>
       </c>
       <c r="R30">
-        <v>374.6864818871915</v>
+        <v>3567.318464796156</v>
       </c>
       <c r="S30">
-        <v>0.008177942731891718</v>
+        <v>0.007721675539225922</v>
       </c>
       <c r="T30">
-        <v>0.008177942731891718</v>
+        <v>0.007721675539225923</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.57209592327151</v>
+        <v>6.811993999999999</v>
       </c>
       <c r="H31">
-        <v>6.57209592327151</v>
+        <v>20.435982</v>
       </c>
       <c r="I31">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="J31">
-        <v>0.07560095636338317</v>
+        <v>0.07479585008131474</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>708.1308641356261</v>
+        <v>789.0733990179832</v>
       </c>
       <c r="R31">
-        <v>708.1308641356261</v>
+        <v>7101.660591161849</v>
       </c>
       <c r="S31">
-        <v>0.015455731480939</v>
+        <v>0.01537197180902453</v>
       </c>
       <c r="T31">
-        <v>0.015455731480939</v>
+        <v>0.01537197180902453</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H32">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I32">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J32">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>1684.463046156795</v>
+        <v>2362.133986157414</v>
       </c>
       <c r="R32">
-        <v>1684.463046156795</v>
+        <v>21259.20587541673</v>
       </c>
       <c r="S32">
-        <v>0.03676525039300878</v>
+        <v>0.04601683074038461</v>
       </c>
       <c r="T32">
-        <v>0.03676525039300878</v>
+        <v>0.04601683074038463</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H33">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I33">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J33">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>3341.983040378745</v>
+        <v>3628.955203159665</v>
       </c>
       <c r="R33">
-        <v>3341.983040378745</v>
+        <v>32660.59682843698</v>
       </c>
       <c r="S33">
-        <v>0.07294243917611971</v>
+        <v>0.07069582772478165</v>
       </c>
       <c r="T33">
-        <v>0.07294243917611971</v>
+        <v>0.07069582772478168</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H34">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I34">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J34">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>1568.924035010899</v>
+        <v>1813.363543022113</v>
       </c>
       <c r="R34">
-        <v>1568.924035010899</v>
+        <v>16320.27188719902</v>
       </c>
       <c r="S34">
-        <v>0.03424348496477268</v>
+        <v>0.03532621084114568</v>
       </c>
       <c r="T34">
-        <v>0.03424348496477268</v>
+        <v>0.03532621084114569</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H35">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I35">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J35">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>1760.985191155992</v>
+        <v>1903.317450929314</v>
       </c>
       <c r="R35">
-        <v>1760.985191155992</v>
+        <v>17129.85705836383</v>
       </c>
       <c r="S35">
-        <v>0.03843542999589437</v>
+        <v>0.03707860667426079</v>
       </c>
       <c r="T35">
-        <v>0.03843542999589437</v>
+        <v>0.03707860667426081</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H36">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I36">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J36">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>1315.015763122665</v>
+        <v>1449.846381818332</v>
       </c>
       <c r="R36">
-        <v>1315.015763122665</v>
+        <v>13048.61743636499</v>
       </c>
       <c r="S36">
-        <v>0.02870165891277026</v>
+        <v>0.0282445178565951</v>
       </c>
       <c r="T36">
-        <v>0.02870165891277026</v>
+        <v>0.02824451785659511</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.0657100099444</v>
+        <v>24.91706433333333</v>
       </c>
       <c r="H37">
-        <v>23.0657100099444</v>
+        <v>74.751193</v>
       </c>
       <c r="I37">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="J37">
-        <v>0.2653323622039009</v>
+        <v>0.2735899368587927</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>2485.286482719663</v>
+        <v>2886.290364767363</v>
       </c>
       <c r="R37">
-        <v>2485.286482719663</v>
+        <v>25976.61328290627</v>
       </c>
       <c r="S37">
-        <v>0.05424409876133508</v>
+        <v>0.05622794302162487</v>
       </c>
       <c r="T37">
-        <v>0.05424409876133508</v>
+        <v>0.05622794302162488</v>
       </c>
     </row>
   </sheetData>
